--- a/data/trans_dic/P33B_R4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R4-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.07605643343369513</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1360313273502234</v>
+        <v>0.1360313273502233</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1042811186948915</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03920015037584958</v>
+        <v>0.03875169695121783</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08745749796418611</v>
+        <v>0.08885908636434948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07226781743013283</v>
+        <v>0.07624303162355413</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.127469574384409</v>
+        <v>0.1291941998521199</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1949509699823734</v>
+        <v>0.1935234077229804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1445544906888333</v>
+        <v>0.1457171805135472</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.08413818285322387</v>
+        <v>0.08413818285322389</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1342428020607176</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05662569437453056</v>
+        <v>0.0564704516515521</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1052018777984579</v>
+        <v>0.1045558976363987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08574595228395743</v>
+        <v>0.08979188799903479</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1277042639739767</v>
+        <v>0.1239883220889626</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1704921507914184</v>
+        <v>0.1702866482091518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1334963606343266</v>
+        <v>0.1359285893433544</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09579902463554484</v>
+        <v>0.1000990685069218</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1461947761897049</v>
+        <v>0.1474454311962536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1300287828514859</v>
+        <v>0.1310820622626274</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1567238679396496</v>
+        <v>0.1586355017245596</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1997102403080242</v>
+        <v>0.1974374973923297</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1682975478997169</v>
+        <v>0.1694691694520865</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.228957020248675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1838197795199796</v>
+        <v>0.1838197795199797</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1112110596448589</v>
+        <v>0.1130164637397029</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2057024604603688</v>
+        <v>0.2033972628047518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1655473348506495</v>
+        <v>0.1654726726726896</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1665222271378415</v>
+        <v>0.167157584942576</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2573523641757415</v>
+        <v>0.2553405969431647</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2022270586041196</v>
+        <v>0.2032756454209345</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.1593789896138209</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3006103234505235</v>
+        <v>0.3006103234505236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2299869959925953</v>
+        <v>0.2299869959925952</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1304246773461191</v>
+        <v>0.1311875226898863</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2717795332117096</v>
+        <v>0.2671243485230768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2099022974601434</v>
+        <v>0.208188682031983</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1905391944540577</v>
+        <v>0.1885851094778074</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3303531424907062</v>
+        <v>0.3309896578520543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2515100985488659</v>
+        <v>0.2525450666831676</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.1593821589741674</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2612505931828834</v>
+        <v>0.2612505931828833</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2122476097798303</v>
+        <v>0.2122476097798304</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1289940942375745</v>
+        <v>0.1286171524970396</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2333137269906665</v>
+        <v>0.2289066790574116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1895115581573059</v>
+        <v>0.1913871593402572</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1901806455023806</v>
+        <v>0.1877467840732802</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2922263414991374</v>
+        <v>0.2900849941859479</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2329202780175566</v>
+        <v>0.2337041521591641</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.3245000058914673</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2996035617681515</v>
+        <v>0.2996035617681516</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2235244283942127</v>
+        <v>0.2242296015439779</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2923859243774984</v>
+        <v>0.2927217290114018</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2748447436655227</v>
+        <v>0.2749157202908514</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3066827001327748</v>
+        <v>0.3042290383826504</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3596676478653668</v>
+        <v>0.3563366641516297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3256301324964462</v>
+        <v>0.3272649753922319</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1255420358413234</v>
+        <v>0.1260824944610589</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2131889006706216</v>
+        <v>0.2130505169081358</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1746251215628594</v>
+        <v>0.1739775242364132</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1518345094474919</v>
+        <v>0.150215052640227</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2379755458396124</v>
+        <v>0.2375701173601832</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1924705459626205</v>
+        <v>0.1923264216905522</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15986</v>
+        <v>15803</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31704</v>
+        <v>32212</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55668</v>
+        <v>58730</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51981</v>
+        <v>52684</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70672</v>
+        <v>70155</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111351</v>
+        <v>112247</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27004</v>
+        <v>26930</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>52715</v>
+        <v>52391</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>83857</v>
+        <v>87814</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60901</v>
+        <v>59129</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>85431</v>
+        <v>85328</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>130556</v>
+        <v>132934</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>59287</v>
+        <v>61948</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>90953</v>
+        <v>91732</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>161367</v>
+        <v>162674</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>96992</v>
+        <v>98175</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>124248</v>
+        <v>122834</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>208859</v>
+        <v>210313</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>77916</v>
+        <v>79181</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>151499</v>
+        <v>149801</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>237910</v>
+        <v>237803</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>116668</v>
+        <v>117113</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189539</v>
+        <v>188057</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>290623</v>
+        <v>292130</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>79333</v>
+        <v>79797</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>165278</v>
+        <v>162447</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>255325</v>
+        <v>253240</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>115898</v>
+        <v>114710</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>200899</v>
+        <v>201286</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>305936</v>
+        <v>307195</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>52511</v>
+        <v>52357</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>102463</v>
+        <v>100528</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>160373</v>
+        <v>161961</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>77419</v>
+        <v>76428</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>128336</v>
+        <v>127395</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>197108</v>
+        <v>197771</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>69337</v>
+        <v>69556</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>135507</v>
+        <v>135663</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>212634</v>
+        <v>212689</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>95132</v>
+        <v>94371</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>166689</v>
+        <v>165145</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>251924</v>
+        <v>253189</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>443127</v>
+        <v>445035</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>795830</v>
+        <v>795314</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1268249</v>
+        <v>1263546</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>535932</v>
+        <v>530216</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>888358</v>
+        <v>886845</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1397855</v>
+        <v>1396808</v>
       </c>
     </row>
     <row r="36">
